--- a/net/Simtek/Simtek.Blazor/Template/Intervento_template.xlsx
+++ b/net/Simtek/Simtek.Blazor/Template/Intervento_template.xlsx
@@ -161,9 +161,16 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
-      <top/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -172,13 +179,6 @@
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -249,7 +249,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -278,22 +278,26 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -306,7 +310,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -520,7 +524,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -575,9 +579,15 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
@@ -594,33 +604,33 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -639,54 +649,54 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
